--- a/src/WebMarket/WebMarket/App_Data/Converter.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Converter.xlsx
@@ -121,9 +121,6 @@
     <t>Photo</t>
   </si>
   <si>
-    <t>IsAvailable</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>170-206 В</t>
+  </si>
+  <si>
+    <t>Availability</t>
   </si>
 </sst>
 </file>
@@ -175,8 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,23 +761,26 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="D5" sqref="D5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
         <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>34</v>
@@ -813,10 +819,10 @@
         <v>23</v>
       </c>
       <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
         <v>39</v>
-      </c>
-      <c r="R1" t="s">
-        <v>40</v>
       </c>
       <c r="S1" t="s">
         <v>22</v>
@@ -835,6 +841,9 @@
       <c r="B2">
         <v>80</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
@@ -851,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S2">
         <v>0.2</v>
@@ -870,6 +879,9 @@
       <c r="B3">
         <v>87</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -886,7 +898,7 @@
         <v>15</v>
       </c>
       <c r="R3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S3">
         <v>0.3</v>
@@ -905,6 +917,9 @@
       <c r="B4">
         <v>120</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
@@ -921,7 +936,7 @@
         <v>15</v>
       </c>
       <c r="R4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S4">
         <v>0.5</v>
@@ -940,6 +955,9 @@
       <c r="B5">
         <v>160</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
@@ -956,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="R5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -975,6 +993,9 @@
       <c r="B6">
         <v>20</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
@@ -1007,6 +1028,9 @@
       <c r="B7">
         <v>21.5</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
@@ -1036,6 +1060,9 @@
       <c r="B8">
         <v>30</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
@@ -1065,6 +1092,9 @@
       <c r="B9">
         <v>50</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
@@ -1097,6 +1127,9 @@
       <c r="B10">
         <v>45</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
@@ -1128,6 +1161,9 @@
       </c>
       <c r="B11">
         <v>60</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -1161,6 +1197,9 @@
       <c r="B12">
         <v>90</v>
       </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
@@ -1192,6 +1231,9 @@
       </c>
       <c r="B13">
         <v>160</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>

--- a/src/WebMarket/WebMarket/App_Data/Converter.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Converter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>240 х 150 х 310</t>
   </si>
@@ -109,12 +109,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>IsNew</t>
-  </si>
-  <si>
-    <t>IsTopBuyed</t>
-  </si>
-  <si>
     <t>Producer</t>
   </si>
   <si>
@@ -140,6 +134,9 @@
   </si>
   <si>
     <t>Availability</t>
+  </si>
+  <si>
+    <t>DisplayClass</t>
   </si>
 </sst>
 </file>
@@ -758,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,72 +766,69 @@
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
       <c r="R1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="S1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -850,29 +844,29 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>24</v>
+      </c>
       <c r="J2">
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
-        <v>40</v>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2">
+        <v>0.2</v>
       </c>
       <c r="S2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -888,29 +882,29 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>24</v>
+      </c>
       <c r="J3">
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" t="s">
-        <v>40</v>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3">
+        <v>0.3</v>
       </c>
       <c r="S3">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -926,29 +920,29 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
       <c r="J4">
-        <v>24</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="R4" t="s">
-        <v>40</v>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
       </c>
       <c r="S4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -964,29 +958,29 @@
       <c r="F5" t="s">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
       <c r="J5">
-        <v>24</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="R5" t="s">
-        <v>40</v>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1002,26 +996,26 @@
       <c r="F6" t="s">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
       <c r="J6">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
         <v>13</v>
       </c>
+      <c r="R6">
+        <v>0.105</v>
+      </c>
       <c r="S6">
-        <v>0.105</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1037,23 +1031,23 @@
       <c r="F7" t="s">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>24</v>
+      </c>
       <c r="J7">
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
         <v>10</v>
       </c>
+      <c r="R7">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="S7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="T7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1069,23 +1063,23 @@
       <c r="F8" t="s">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
       <c r="J8">
-        <v>24</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
         <v>10</v>
       </c>
+      <c r="R8">
+        <v>2.1</v>
+      </c>
       <c r="S8">
-        <v>2.1</v>
-      </c>
-      <c r="T8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1101,26 +1095,26 @@
       <c r="F9" t="s">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>24</v>
+      </c>
       <c r="J9">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
         <v>8</v>
       </c>
+      <c r="R9">
+        <v>0.3</v>
+      </c>
       <c r="S9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1136,26 +1130,26 @@
       <c r="F10" t="s">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
       <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
         <v>6</v>
       </c>
+      <c r="R10">
+        <v>0.5</v>
+      </c>
       <c r="S10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1171,26 +1165,26 @@
       <c r="F11" t="s">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>24</v>
+      </c>
       <c r="J11">
-        <v>24</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
         <v>3</v>
       </c>
+      <c r="R11">
+        <v>0.7</v>
+      </c>
       <c r="S11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1206,26 +1200,26 @@
       <c r="F12" t="s">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>24</v>
+      </c>
       <c r="J12">
-        <v>24</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
         <v>3</v>
       </c>
+      <c r="R12">
+        <v>0.7</v>
+      </c>
       <c r="S12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1241,22 +1235,22 @@
       <c r="F13" t="s">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>24</v>
+      </c>
       <c r="J13">
-        <v>24</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
         <v>0</v>
       </c>
+      <c r="R13">
+        <v>0.7</v>
+      </c>
       <c r="S13">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
         <v>10</v>
       </c>
     </row>
